--- a/Home asset inventory.xlsx
+++ b/Home asset inventory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magno\Desktop\Documentos profissionais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\google_cybersecurity_course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3CAEE37-71BA-4CBC-8386-1366F1BE842E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE9AB06-F77C-4842-8440-6A766D20910E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Asset</t>
   </si>
@@ -109,13 +109,10 @@
     <t>Notebook</t>
   </si>
   <si>
-    <t>Contem informação privadas como fotos e documentos.</t>
-  </si>
-  <si>
-    <t>Proprietario</t>
-  </si>
-  <si>
     <t>Celular</t>
+  </si>
+  <si>
+    <t>Contains private information such as photos and documents.</t>
   </si>
 </sst>
 </file>
@@ -573,9 +570,9 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -657,13 +654,13 @@
         <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>13</v>
@@ -682,13 +679,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>15</v>
@@ -806,7 +803,7 @@
   <customSheetViews>
     <customSheetView guid="{C86149E5-7B16-463F-895B-F05A12B3AD69}" filter="1" showAutoFilter="1">
       <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-      <autoFilter ref="A1:E7" xr:uid="{394F4FE6-EFE8-4106-B4EB-080AD2D738A2}"/>
+      <autoFilter ref="A1:E7" xr:uid="{95F9D085-CB58-4523-9175-7B7DAAFA66E9}"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
